--- a/TPs/TP1/TABLA100/AG_TP1_Ruleta_c_Elitismo.xlsx
+++ b/TPs/TP1/TABLA100/AG_TP1_Ruleta_c_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9772865524995162</v>
+        <v>0.9786152521974605</v>
       </c>
       <c r="C2">
-        <v>0.001723061615328556</v>
+        <v>0.01737813809138321</v>
       </c>
       <c r="D2">
-        <v>0.4547548723030227</v>
+        <v>0.2794867424089306</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9772866114233604</v>
+        <v>0.9786152614105675</v>
       </c>
       <c r="C3">
-        <v>0.6126455354603939</v>
+        <v>0.01737471707613353</v>
       </c>
       <c r="D3">
-        <v>0.7733942153647518</v>
+        <v>0.5905180668592231</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9772866114233604</v>
+        <v>0.9786152614105675</v>
       </c>
       <c r="C4">
-        <v>0.8098276877968473</v>
+        <v>0.5796895173364724</v>
       </c>
       <c r="D4">
-        <v>0.887612224242553</v>
+        <v>0.8543547540967195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9775430058875866</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C5">
-        <v>0.8098276877968473</v>
+        <v>0.5796895173364724</v>
       </c>
       <c r="D5">
-        <v>0.9169375900049662</v>
+        <v>0.8927930868999951</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9775430058875866</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C6">
-        <v>0.8088345174328326</v>
+        <v>0.7469277912055573</v>
       </c>
       <c r="D6">
-        <v>0.9297221500110379</v>
+        <v>0.9300160256268708</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9785087792147189</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C7">
-        <v>0.7661449532372653</v>
+        <v>0.785657877903879</v>
       </c>
       <c r="D7">
-        <v>0.9087689324688736</v>
+        <v>0.953183985536594</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9785087792147189</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C8">
-        <v>0.8009493659618242</v>
+        <v>0.7856578762528797</v>
       </c>
       <c r="D8">
-        <v>0.9275500139269161</v>
+        <v>0.9531840532688758</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9785087792147189</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C9">
-        <v>0.8009493659618242</v>
+        <v>0.7856612591538639</v>
       </c>
       <c r="D9">
-        <v>0.9532649251653874</v>
+        <v>0.9562278215217017</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9785087792147189</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C10">
-        <v>0.9466376907841886</v>
+        <v>0.7856612591538639</v>
       </c>
       <c r="D10">
-        <v>0.9615813274978459</v>
+        <v>0.9593191862335237</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.97850884186044</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C11">
-        <v>0.8300504189311926</v>
+        <v>0.7856612575028612</v>
       </c>
       <c r="D11">
-        <v>0.960084675526236</v>
+        <v>0.9585478617930312</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.97850884186044</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C12">
-        <v>0.4370149019218867</v>
+        <v>0.9709025104764433</v>
       </c>
       <c r="D12">
-        <v>0.9031385661620075</v>
+        <v>0.9778436887343851</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9785088492305249</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C13">
-        <v>0.8300504189311926</v>
+        <v>0.9786119962881134</v>
       </c>
       <c r="D13">
-        <v>0.9424666756884108</v>
+        <v>0.9786150148684174</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9785088492305249</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="C14">
-        <v>0.2391858735526728</v>
+        <v>0.9785553918706945</v>
       </c>
       <c r="D14">
-        <v>0.90141467068709</v>
+        <v>0.9786089772423342</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9785088492305249</v>
+        <v>0.9941338380334137</v>
       </c>
       <c r="C15">
-        <v>0.9468900910646205</v>
+        <v>0.9785553918706945</v>
       </c>
       <c r="D15">
-        <v>0.9626995621989869</v>
+        <v>0.9801487086118318</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9785093209160214</v>
+        <v>0.9941338380334137</v>
       </c>
       <c r="C16">
-        <v>0.9468900983146522</v>
+        <v>0.9478864203646652</v>
       </c>
       <c r="D16">
-        <v>0.9694037851764612</v>
+        <v>0.9786336182671554</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9785093209160214</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C17">
-        <v>0.9468900983146522</v>
+        <v>0.9478864203646652</v>
       </c>
       <c r="D17">
-        <v>0.9725612267803585</v>
+        <v>0.9817447910919732</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9785093209160214</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C18">
-        <v>0.9502194502983233</v>
+        <v>0.9785553918706945</v>
       </c>
       <c r="D18">
-        <v>0.9748801594340483</v>
+        <v>0.9879251372072199</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9785093209160214</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C19">
-        <v>0.5464111703235413</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="D19">
-        <v>0.9329613874787714</v>
+        <v>0.9848290828083315</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9823771836657074</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C20">
-        <v>0.5464111703235413</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="D20">
-        <v>0.9341437243000905</v>
+        <v>0.9879342059018745</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9823771836657074</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C21">
-        <v>0.5464111675698204</v>
+        <v>0.9786157699741489</v>
       </c>
       <c r="D21">
-        <v>0.9345305106681915</v>
+        <v>0.9879357273044939</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9823771836657074</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C22">
-        <v>0.5464111675698204</v>
+        <v>0.8734215226675351</v>
       </c>
       <c r="D22">
-        <v>0.8481108798141419</v>
+        <v>0.9758614529626675</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9823771836657074</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C23">
-        <v>0.5464108150936147</v>
+        <v>0.8734215226675351</v>
       </c>
       <c r="D23">
-        <v>0.8916833929181397</v>
+        <v>0.9774162906529034</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9823771836657074</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C24">
-        <v>0.5464108150936147</v>
+        <v>0.8734215226675351</v>
       </c>
       <c r="D24">
-        <v>0.844716330033674</v>
+        <v>0.9774178120555227</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9823771836657074</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C25">
-        <v>0.3772367999549923</v>
+        <v>0.8734215226675351</v>
       </c>
       <c r="D25">
-        <v>0.6480893363737759</v>
+        <v>0.9668999087274803</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9823771836657074</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C26">
-        <v>0.3772367999549923</v>
+        <v>0.8734215226675351</v>
       </c>
       <c r="D26">
-        <v>0.6136608592009554</v>
+        <v>0.9684517274543358</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9823771836657074</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C27">
-        <v>0.4579175575170276</v>
+        <v>0.8734072623156617</v>
       </c>
       <c r="D27">
-        <v>0.7690313485192035</v>
+        <v>0.9622792672537986</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C28">
-        <v>0.457917882711801</v>
+        <v>0.9479607011921237</v>
       </c>
       <c r="D28">
-        <v>0.8081116739434393</v>
+        <v>0.9879783982460018</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C29">
-        <v>0.5464108178473346</v>
+        <v>0.9786308647910508</v>
       </c>
       <c r="D29">
-        <v>0.7909539959580463</v>
+        <v>0.9925911477921225</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C30">
-        <v>0.5493024650494147</v>
+        <v>0.9786308647910508</v>
       </c>
       <c r="D30">
-        <v>0.8284298053810814</v>
+        <v>0.9894920744764197</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C31">
-        <v>0.5037811859805277</v>
+        <v>0.9786308647910508</v>
       </c>
       <c r="D31">
-        <v>0.7931751354742638</v>
+        <v>0.9879402557495643</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C32">
-        <v>0.5493024650494147</v>
+        <v>0.9786308647910508</v>
       </c>
       <c r="D32">
-        <v>0.8677883365294713</v>
+        <v>0.9894920744764197</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C33">
-        <v>0.9214032381423142</v>
+        <v>0.9786308647910508</v>
       </c>
       <c r="D33">
-        <v>0.9779260231927516</v>
+        <v>0.9894920744764197</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C34">
-        <v>0.9765782432013221</v>
+        <v>0.9786308647910508</v>
       </c>
       <c r="D34">
-        <v>0.9834435251770355</v>
+        <v>0.9894918843004558</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C35">
-        <v>0.242187983939294</v>
+        <v>0.2393731300764949</v>
       </c>
       <c r="D35">
-        <v>0.8358887702467481</v>
+        <v>0.9154670536971772</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9843139760635049</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C36">
-        <v>0.242187983939294</v>
+        <v>0.2393731300764949</v>
       </c>
       <c r="D36">
-        <v>0.9101013280644527</v>
+        <v>0.9183744778967317</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9998769797967944</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C37">
-        <v>0.2421879876059183</v>
+        <v>0.05724426306846284</v>
       </c>
       <c r="D37">
-        <v>0.9116513354216155</v>
+        <v>0.9003562830474656</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9998769797967944</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C38">
-        <v>0.864202254129478</v>
+        <v>0.9938904294468307</v>
       </c>
       <c r="D38">
-        <v>0.9754153528733636</v>
+        <v>0.9941199568171255</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9998769797967944</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C39">
-        <v>0.8642044774553749</v>
+        <v>0.9939056416103772</v>
       </c>
       <c r="D39">
-        <v>0.9769715932082914</v>
+        <v>0.9941214780334802</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9998769797967944</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C40">
-        <v>0.9843116032603346</v>
+        <v>0.9941338380334137</v>
       </c>
       <c r="D40">
-        <v>0.9889823054104369</v>
+        <v>0.9941469541860923</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9998769723466721</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C41">
-        <v>0.9842988226968087</v>
+        <v>0.9941338380334137</v>
       </c>
       <c r="D41">
-        <v>0.9905355516279595</v>
+        <v>0.9941456289024388</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.999999038875333</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C42">
-        <v>0.9383569140074567</v>
+        <v>0.9941338380334137</v>
       </c>
       <c r="D42">
-        <v>0.9914071818028786</v>
+        <v>0.9941456289024388</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9999989271166807</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C43">
-        <v>0.9383421330560685</v>
+        <v>0.9941338380334137</v>
       </c>
       <c r="D43">
-        <v>0.9906260658900502</v>
+        <v>0.9941456289024388</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9999989271166807</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="C44">
-        <v>0.9383421330560685</v>
+        <v>0.9941338380334137</v>
       </c>
       <c r="D44">
-        <v>0.9937356406826783</v>
+        <v>0.9941440599558089</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9999989271166807</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C45">
-        <v>0.938357155786682</v>
+        <v>0.9941338380334137</v>
       </c>
       <c r="D45">
-        <v>0.9937843823226176</v>
+        <v>0.9941459624532312</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9999989271166807</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C46">
-        <v>0.9980467568369178</v>
+        <v>0.9939056416103772</v>
       </c>
       <c r="D46">
-        <v>0.9997273865821932</v>
+        <v>0.9941246879855523</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9999989271166807</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C47">
-        <v>0.9980467493936171</v>
+        <v>0.9941488143395508</v>
       </c>
       <c r="D47">
-        <v>0.9995337234626114</v>
+        <v>0.9941490297733502</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9999989271166807</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C48">
-        <v>0.9980467568369178</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="D48">
-        <v>0.9995703801054466</v>
+        <v>0.9941490535453557</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9999989271166807</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C49">
-        <v>0.968993084476838</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="D49">
-        <v>0.9966787229504774</v>
+        <v>0.9941490557739814</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9999989271166807</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C50">
-        <v>0.9998616028034799</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="D50">
-        <v>0.999948489791565</v>
+        <v>0.9941490572597319</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9999989271166807</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C51">
-        <v>0.9990226035582197</v>
+        <v>0.9941490520596054</v>
       </c>
       <c r="D51">
-        <v>0.999849698873694</v>
+        <v>0.994149058002607</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9999989271166807</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C52">
-        <v>0.9997547940739147</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="D52">
-        <v>0.9999349316076614</v>
+        <v>0.9941490594883575</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C53">
-        <v>0.9998616028034799</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="D53">
-        <v>0.9999702165197009</v>
+        <v>0.9941490594883575</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C54">
-        <v>0.9998620796076978</v>
+        <v>0.9941452559708814</v>
       </c>
       <c r="D54">
-        <v>0.9999818091465393</v>
+        <v>0.9941482987846804</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C55">
-        <v>0.878906138132155</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D55">
-        <v>0.987887454773318</v>
+        <v>0.9941481086085338</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C56">
-        <v>0.1914061973875541</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D56">
-        <v>0.9168011498712788</v>
+        <v>0.9941486315924198</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C57">
-        <v>0.9883078790776983</v>
+        <v>0.9931755965017417</v>
       </c>
       <c r="D57">
-        <v>0.998815326938234</v>
+        <v>0.9940512852937582</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C58">
-        <v>0.9883078790776983</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D58">
-        <v>0.9988159732746322</v>
+        <v>0.9941484889604633</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C59">
-        <v>0.7553986912021794</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D59">
-        <v>0.9634286554953407</v>
+        <v>0.9941481086085338</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C60">
-        <v>0.8789061101924798</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D60">
-        <v>0.9757741586105843</v>
+        <v>0.9941482987844985</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C61">
-        <v>0.8789061101924798</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D61">
-        <v>0.9878874452765143</v>
+        <v>0.9941481086085338</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C62">
-        <v>0.2499999399296975</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D62">
-        <v>0.9249981678587764</v>
+        <v>0.9941482987844985</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C63">
-        <v>0.9999903440708466</v>
+        <v>0.9939056490382199</v>
       </c>
       <c r="D63">
-        <v>0.9999979712108429</v>
+        <v>0.9941241479154496</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C64">
-        <v>0.2499999399296975</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D64">
-        <v>0.9234434880767516</v>
+        <v>0.994148679136428</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C65">
-        <v>0.9844359131676619</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D65">
-        <v>0.9983946130654436</v>
+        <v>0.994148679136428</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C66">
-        <v>0.9536741963103204</v>
+        <v>0.99414715772871</v>
       </c>
       <c r="D66">
-        <v>0.9934205755880143</v>
+        <v>0.994148679136428</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C67">
-        <v>0.9844359131676619</v>
+        <v>0.9931755965017417</v>
       </c>
       <c r="D67">
-        <v>0.997857689287998</v>
+        <v>0.9940515230137311</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C68">
-        <v>0.9980477095796283</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="D68">
-        <v>0.9993348402362084</v>
+        <v>0.9941490594883575</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9999998807907138</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="C69">
-        <v>0.2499999399296975</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="D69">
-        <v>0.8489841388931512</v>
+        <v>0.9941490594883575</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9999998807907138</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="C70">
-        <v>0.9978038222886936</v>
+        <v>0.9931755965017417</v>
       </c>
       <c r="D70">
-        <v>0.9989658377988194</v>
+        <v>0.9940517369617033</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.9999998807907138</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="C71">
-        <v>0.9824990044418536</v>
+        <v>0.9941490594883575</v>
       </c>
       <c r="D71">
-        <v>0.9956730849562649</v>
+        <v>0.9941490892033666</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.9999998807907138</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="C72">
-        <v>0.9824990044418536</v>
+        <v>0.873421529630626</v>
       </c>
       <c r="D72">
-        <v>0.9976153483985353</v>
+        <v>0.9820276630493451</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.99996936344721</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="C73">
-        <v>0.9844056231544064</v>
+        <v>0.9936623278058713</v>
       </c>
       <c r="D73">
-        <v>0.9982025139510322</v>
+        <v>0.9941004279211219</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.99996936344721</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="C74">
-        <v>0.9980477095796283</v>
+        <v>0.9936623278058713</v>
       </c>
       <c r="D74">
-        <v>0.9992891329990709</v>
+        <v>0.9940517547528731</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.99996936344721</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="C75">
-        <v>0.9980477095796283</v>
+        <v>0.5581139846736003</v>
       </c>
       <c r="D75">
-        <v>0.9995727796827774</v>
+        <v>0.9505455988080213</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.99996936344721</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="C76">
-        <v>0.8770760372337969</v>
+        <v>0.5581139846736003</v>
       </c>
       <c r="D76">
-        <v>0.9874250737284477</v>
+        <v>0.9505455572070136</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.99996936344721</v>
+        <v>0.9960974754612926</v>
       </c>
       <c r="C77">
-        <v>0.8779622506801066</v>
+        <v>0.9941472171586716</v>
       </c>
       <c r="D77">
-        <v>0.9872622237116031</v>
+        <v>0.9943437164812501</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9999998807907138</v>
+        <v>0.9960974754612926</v>
       </c>
       <c r="C78">
-        <v>0.9980477095796283</v>
+        <v>0.9941472171586716</v>
       </c>
       <c r="D78">
-        <v>0.9990877048693552</v>
+        <v>0.9945385521355415</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9999998807907138</v>
+        <v>0.9960974754612926</v>
       </c>
       <c r="C79">
-        <v>0.9980477095796283</v>
+        <v>0.9941472171586716</v>
       </c>
       <c r="D79">
-        <v>0.9992401505006571</v>
+        <v>0.9949281755286778</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9999998807907138</v>
+        <v>0.9960974754612926</v>
       </c>
       <c r="C80">
-        <v>0.9989925777272821</v>
+        <v>0.9941486397639041</v>
       </c>
       <c r="D80">
-        <v>0.9995970355075974</v>
+        <v>0.9957077086466862</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0.9960974754612926</v>
       </c>
       <c r="C81">
-        <v>0.7656246347178671</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="D81">
-        <v>0.95292339513901</v>
+        <v>0.9959025922164251</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.9960974754612926</v>
       </c>
       <c r="C82">
-        <v>0.7656246216793542</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="D82">
-        <v>0.9529234042507758</v>
+        <v>0.9959026398070009</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C83">
-        <v>0.7656246216793542</v>
+        <v>0.9960974754612926</v>
       </c>
       <c r="D83">
-        <v>0.946871793066672</v>
+        <v>0.9962925018504478</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0.9980472629814263</v>
       </c>
       <c r="C84">
-        <v>0.7656247259874606</v>
+        <v>0.9960974754612926</v>
       </c>
       <c r="D84">
-        <v>0.9000974662196504</v>
+        <v>0.9964859085827806</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C85">
-        <v>0.7656246347178671</v>
+        <v>0.9960817706313082</v>
       </c>
       <c r="D85">
-        <v>0.9408200761248992</v>
+        <v>0.9970693219929642</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C86">
-        <v>0.7656249997962732</v>
+        <v>0.9960969995555347</v>
       </c>
       <c r="D86">
-        <v>0.970409992171534</v>
+        <v>0.9974593256440167</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C87">
-        <v>0.7656249997962732</v>
+        <v>0.996095571838943</v>
       </c>
       <c r="D87">
-        <v>0.9235350891280237</v>
+        <v>0.9978486640051697</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C88">
-        <v>0.1398935313632155</v>
+        <v>0.996095571838943</v>
       </c>
       <c r="D88">
-        <v>0.718626481149113</v>
+        <v>0.9976552098219595</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C89">
-        <v>0.1406235690556068</v>
+        <v>0.9980320191560386</v>
       </c>
       <c r="D89">
-        <v>0.86716289662034</v>
+        <v>0.9980456909619274</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C90">
-        <v>0.1406235243523542</v>
+        <v>0.9980458338678508</v>
       </c>
       <c r="D90">
-        <v>0.8671407683976096</v>
+        <v>0.9980475011672041</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C91">
-        <v>0.1406235243523542</v>
+        <v>0.9980401174237807</v>
       </c>
       <c r="D91">
-        <v>0.8906003206428454</v>
+        <v>0.9980465960629401</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C92">
-        <v>0.9689941405963509</v>
+        <v>0.9980458338678508</v>
       </c>
       <c r="D92">
-        <v>0.9968849126264651</v>
+        <v>0.9980473582558466</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C93">
-        <v>0.9689941405963509</v>
+        <v>0.9979257919802689</v>
       </c>
       <c r="D93">
-        <v>0.9906729943978754</v>
+        <v>0.9980353540670883</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C94">
-        <v>0.9689932018234222</v>
+        <v>0.9979257919802689</v>
       </c>
       <c r="D94">
-        <v>0.9968977943063451</v>
+        <v>0.9980355446155877</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C95">
-        <v>0.8789062498908606</v>
+        <v>0.9979257919802689</v>
       </c>
       <c r="D95">
-        <v>0.9816884532419683</v>
+        <v>0.9980355446155877</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C96">
-        <v>0.8789053558214156</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="D96">
-        <v>0.9878897718990849</v>
+        <v>0.9980477393528455</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C97">
-        <v>0.8789053558214156</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="D97">
-        <v>0.9878401398578532</v>
+        <v>0.9980477393528455</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C98">
-        <v>0.8788990973480333</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="D98">
-        <v>0.9878401815811045</v>
+        <v>0.9980477393528455</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C99">
-        <v>0.4726510044056313</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="D99">
-        <v>0.9351075712169437</v>
+        <v>0.9976578773093985</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C100">
-        <v>0.992202758781815</v>
+        <v>0.994149118918376</v>
       </c>
       <c r="D100">
-        <v>0.9992201805107725</v>
+        <v>0.9976091028307164</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C101">
-        <v>0.7656249997962732</v>
+        <v>0.9980324955238198</v>
       </c>
       <c r="D101">
-        <v>0.9765624046122184</v>
+        <v>0.9980462149699429</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0.9980477393528455</v>
       </c>
       <c r="C102">
-        <v>0.7656249997962732</v>
+        <v>0.9980324955238198</v>
       </c>
       <c r="D102">
-        <v>0.9523406028558583</v>
+        <v>0.9980446905870404</v>
       </c>
     </row>
   </sheetData>
